--- a/DOKUMEN  PENDUKUNG/DATA DATA YANG HARUS DIMASUKAN/DATA LAPANGAN/HASIL PEMBANGUNAN 2014_hasil.xlsx
+++ b/DOKUMEN  PENDUKUNG/DATA DATA YANG HARUS DIMASUKAN/DATA LAPANGAN/HASIL PEMBANGUNAN 2014_hasil.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipepeng\DOKUMEN  PENDUKUNG\DATA DATA YANG HARUS DIMASUKAN\DATA LAPANGAN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="653" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="653" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JALAN 2014" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,6 @@
     <sheet name="SEPTICTANKKOMUNAL 2014" sheetId="7" r:id="rId4"/>
     <sheet name="AIR BERSIH SUMUR DANGKAL" sheetId="9" r:id="rId5"/>
     <sheet name="LAIN LAIN" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'AIR BERSIH SUMUR DANGKAL'!$A$1:$M$24</definedName>
@@ -1093,6 +1096,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1105,22 +1124,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,6 +1133,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1178,7 +1184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1213,7 +1219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1451,44 +1457,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -2037,11 +2043,11 @@
       </c>
     </row>
     <row r="19" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="L19" s="68" t="s">
+      <c r="L19" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
     </row>
     <row r="20" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D20" s="37" t="s">
@@ -2069,11 +2075,11 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="70" t="s">
+      <c r="L21" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
     </row>
     <row r="22" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="38"/>
@@ -2177,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B4" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2203,46 +2209,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -2341,7 +2347,7 @@
       <c r="J5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="68" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="23" t="s">
@@ -2636,49 +2642,49 @@
       <c r="O11" s="30"/>
     </row>
     <row r="12" spans="1:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73">
+      <c r="A12" s="69">
         <v>8</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="70">
         <v>6</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="70">
         <v>20</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="70">
         <v>300</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="74" t="s">
+      <c r="L12" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="74" t="s">
+      <c r="M12" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="74">
+      <c r="N12" s="70">
         <v>2014</v>
       </c>
-      <c r="O12" s="77"/>
+      <c r="O12" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2721,38 +2727,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
@@ -2866,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,38 +2895,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
@@ -3098,38 +3104,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
@@ -3323,36 +3329,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
@@ -3481,28 +3487,4 @@
   <pageMargins left="0.25" right="0" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>